--- a/stock_predictor_ai/data/cleaned/BABA.xlsx
+++ b/stock_predictor_ai/data/cleaned/BABA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2708"/>
+  <dimension ref="A1:F2709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54609,6 +54609,26 @@
         <v>3994945</v>
       </c>
     </row>
+    <row r="2709">
+      <c r="A2709" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>104.2399978637695</v>
+      </c>
+      <c r="C2709" t="n">
+        <v>105.5250015258789</v>
+      </c>
+      <c r="D2709" t="n">
+        <v>104.1509017944336</v>
+      </c>
+      <c r="E2709" t="n">
+        <v>105.4800033569336</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>4341944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/BABA.xlsx
+++ b/stock_predictor_ai/data/cleaned/BABA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2709"/>
+  <dimension ref="A1:F2710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54629,6 +54629,26 @@
         <v>4341944</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>116.9700012207031</v>
+      </c>
+      <c r="C2710" t="n">
+        <v>117.2149963378906</v>
+      </c>
+      <c r="D2710" t="n">
+        <v>113.2040023803711</v>
+      </c>
+      <c r="E2710" t="n">
+        <v>114.6549987792969</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>34638600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/BABA.xlsx
+++ b/stock_predictor_ai/data/cleaned/BABA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2710"/>
+  <dimension ref="A1:F2711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54649,6 +54649,26 @@
         <v>34638600</v>
       </c>
     </row>
+    <row r="2711">
+      <c r="A2711" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>121.0899963378906</v>
+      </c>
+      <c r="C2711" t="n">
+        <v>121.4400024414062</v>
+      </c>
+      <c r="D2711" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="E2711" t="n">
+        <v>119.5100021362305</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>4845084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/BABA.xlsx
+++ b/stock_predictor_ai/data/cleaned/BABA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2711"/>
+  <dimension ref="A1:F2712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54669,6 +54669,26 @@
         <v>4845084</v>
       </c>
     </row>
+    <row r="2712">
+      <c r="A2712" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>137.2194061279297</v>
+      </c>
+      <c r="C2712" t="n">
+        <v>138.4400024414062</v>
+      </c>
+      <c r="D2712" t="n">
+        <v>133.0700073242188</v>
+      </c>
+      <c r="E2712" t="n">
+        <v>134.4700012207031</v>
+      </c>
+      <c r="F2712" t="n">
+        <v>29469619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/BABA.xlsx
+++ b/stock_predictor_ai/data/cleaned/BABA.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2712"/>
+  <dimension ref="A1:F2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54589,106 +54591,6 @@
         <v>17087200</v>
       </c>
     </row>
-    <row r="2708">
-      <c r="A2708" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2708" t="n">
-        <v>108.6600036621094</v>
-      </c>
-      <c r="C2708" t="n">
-        <v>109.0800018310547</v>
-      </c>
-      <c r="D2708" t="n">
-        <v>107.9499969482422</v>
-      </c>
-      <c r="E2708" t="n">
-        <v>108.3349990844727</v>
-      </c>
-      <c r="F2708" t="n">
-        <v>3994945</v>
-      </c>
-    </row>
-    <row r="2709">
-      <c r="A2709" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2709" t="n">
-        <v>104.2399978637695</v>
-      </c>
-      <c r="C2709" t="n">
-        <v>105.5250015258789</v>
-      </c>
-      <c r="D2709" t="n">
-        <v>104.1509017944336</v>
-      </c>
-      <c r="E2709" t="n">
-        <v>105.4800033569336</v>
-      </c>
-      <c r="F2709" t="n">
-        <v>4341944</v>
-      </c>
-    </row>
-    <row r="2710">
-      <c r="A2710" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2710" t="n">
-        <v>116.9700012207031</v>
-      </c>
-      <c r="C2710" t="n">
-        <v>117.2149963378906</v>
-      </c>
-      <c r="D2710" t="n">
-        <v>113.2040023803711</v>
-      </c>
-      <c r="E2710" t="n">
-        <v>114.6549987792969</v>
-      </c>
-      <c r="F2710" t="n">
-        <v>34638600</v>
-      </c>
-    </row>
-    <row r="2711">
-      <c r="A2711" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2711" t="n">
-        <v>121.0899963378906</v>
-      </c>
-      <c r="C2711" t="n">
-        <v>121.4400024414062</v>
-      </c>
-      <c r="D2711" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="E2711" t="n">
-        <v>119.5100021362305</v>
-      </c>
-      <c r="F2711" t="n">
-        <v>4845084</v>
-      </c>
-    </row>
-    <row r="2712">
-      <c r="A2712" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2712" t="n">
-        <v>137.2194061279297</v>
-      </c>
-      <c r="C2712" t="n">
-        <v>138.4400024414062</v>
-      </c>
-      <c r="D2712" t="n">
-        <v>133.0700073242188</v>
-      </c>
-      <c r="E2712" t="n">
-        <v>134.4700012207031</v>
-      </c>
-      <c r="F2712" t="n">
-        <v>29469619</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
